--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A520EF-77D1-47B4-BC80-4F9AD93222C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937DE25-CF44-43E1-AFB4-20FDAD2B987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5090" yWindow="650" windowWidth="14400" windowHeight="7400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4889" uniqueCount="2468">
   <si>
     <t>code</t>
   </si>
@@ -7415,6 +7416,15 @@
   </si>
   <si>
     <t>filou</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -7803,17 +7813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V969"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="3" customWidth="1"/>
-    <col min="2" max="22" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.6328125" style="3" customWidth="1"/>
+    <col min="2" max="22" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>82000798965</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>4053400281865</v>
       </c>
@@ -7930,7 +7938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3119780264537</v>
       </c>
@@ -7962,7 +7970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3660989103706</v>
       </c>
@@ -7985,7 +7993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>26012261</v>
       </c>
@@ -8008,7 +8016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4013246205241</v>
       </c>
@@ -8031,7 +8039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>3245414821620</v>
       </c>
@@ -8054,7 +8062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>3328640124274</v>
       </c>
@@ -8077,7 +8085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>5900699103530</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>3114468001145</v>
       </c>
@@ -8126,7 +8134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>5011013100156</v>
       </c>
@@ -8149,7 +8157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>3222473196296</v>
       </c>
@@ -8172,7 +8180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>3222475918377</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>3222476818102</v>
       </c>
@@ -8218,7 +8226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>3222475086762</v>
       </c>
@@ -8241,7 +8249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3222474464059</v>
       </c>
@@ -8264,7 +8272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3222474241414</v>
       </c>
@@ -8287,7 +8295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>3222475086809</v>
       </c>
@@ -8310,7 +8318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3222472865681</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3222475086786</v>
       </c>
@@ -8356,7 +8364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>3222472480051</v>
       </c>
@@ -8379,7 +8387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>3222471001448</v>
       </c>
@@ -8402,7 +8410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>3222473277506</v>
       </c>
@@ -8428,7 +8436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3222471001455</v>
       </c>
@@ -8451,7 +8459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>3222471467138</v>
       </c>
@@ -8474,7 +8482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>3222472342236</v>
       </c>
@@ -8497,7 +8505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>3222476754592</v>
       </c>
@@ -8520,7 +8528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>3222476754615</v>
       </c>
@@ -8543,7 +8551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>3222476427038</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>3222473950232</v>
       </c>
@@ -8589,7 +8597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>3222473950218</v>
       </c>
@@ -8612,7 +8620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>3222472481164</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>3222475127502</v>
       </c>
@@ -8658,7 +8666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>3222473950225</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>3222472480068</v>
       </c>
@@ -8704,7 +8712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>3222474984335</v>
       </c>
@@ -8727,7 +8735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>3016570001030</v>
       </c>
@@ -8750,7 +8758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>3016570001054</v>
       </c>
@@ -8773,7 +8781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>3018300004540</v>
       </c>
@@ -8796,7 +8804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>3011932009952</v>
       </c>
@@ -8819,7 +8827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>3049610004104</v>
       </c>
@@ -8845,7 +8853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>3041311025860</v>
       </c>
@@ -8868,7 +8876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3113930004103</v>
       </c>
@@ -8891,7 +8899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>3163937104061</v>
       </c>
@@ -8914,7 +8922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>3163937637002</v>
       </c>
@@ -8937,7 +8945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>3163937010003</v>
       </c>
@@ -8960,7 +8968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>3185370303405</v>
       </c>
@@ -8983,7 +8991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>3185370045169</v>
       </c>
@@ -9006,7 +9014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>3185370283905</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>3253958000012</v>
       </c>
@@ -9052,7 +9060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>3253958000166</v>
       </c>
@@ -9075,7 +9083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>3262151637758</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>3261570006329</v>
       </c>
@@ -9121,7 +9129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>3282946015837</v>
       </c>
@@ -9144,7 +9152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>3328731010004</v>
       </c>
@@ -9167,7 +9175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>3328731030019</v>
       </c>
@@ -9190,7 +9198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>3351650016826</v>
       </c>
@@ -9213,7 +9221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>3352370002823</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>3359952005005</v>
       </c>
@@ -9259,7 +9267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>3416185015499</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>3431551201122</v>
       </c>
@@ -9305,7 +9313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>3438931010411</v>
       </c>
@@ -9328,7 +9336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>3536650501002</v>
       </c>
@@ -9357,7 +9365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>3760077984456</v>
       </c>
@@ -9380,7 +9388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>3760106330506</v>
       </c>
@@ -9403,7 +9411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>4260134390019</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>5000281005409</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>5000267014203</v>
       </c>
@@ -9487,7 +9495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>5010103931502</v>
       </c>
@@ -9510,7 +9518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>5010106111956</v>
       </c>
@@ -9533,7 +9541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>5000299610763</v>
       </c>
@@ -9556,7 +9564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>5411681401775</v>
       </c>
@@ -9579,7 +9587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>5900343005296</v>
       </c>
@@ -9605,7 +9613,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>5411681405186</v>
       </c>
@@ -9628,7 +9636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>7312040017034</v>
       </c>
@@ -9654,7 +9662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>7312040017683</v>
       </c>
@@ -9683,7 +9691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>8000040000802</v>
       </c>
@@ -9712,7 +9720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>7640175743284</v>
       </c>
@@ -9738,7 +9746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>8002230130702</v>
       </c>
@@ -9761,7 +9769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>8410414000466</v>
       </c>
@@ -9784,7 +9792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>8850999112107</v>
       </c>
@@ -9810,7 +9818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2000000000992</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>5010677801553</v>
       </c>
@@ -9859,7 +9867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>4005249008875</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>41051863</v>
       </c>
@@ -9905,7 +9913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>3245414914209</v>
       </c>
@@ -9928,7 +9936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>3119780263868</v>
       </c>
@@ -9951,7 +9959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>8410261151625</v>
       </c>
@@ -9977,7 +9985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>4311605442284</v>
       </c>
@@ -10000,7 +10008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>7350071700105</v>
       </c>
@@ -10023,7 +10031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>3080216037455</v>
       </c>
@@ -10046,7 +10054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>3080216036960</v>
       </c>
@@ -10069,7 +10077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>3080216053738</v>
       </c>
@@ -10092,7 +10100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>3080216053745</v>
       </c>
@@ -10115,7 +10123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>3080216039312</v>
       </c>
@@ -10138,7 +10146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>5000387905504</v>
       </c>
@@ -10161,7 +10169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>3163937012809</v>
       </c>
@@ -10181,7 +10189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>3119780268054</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>8437011862426</v>
       </c>
@@ -10224,7 +10232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>7790950000160</v>
       </c>
@@ -10244,7 +10252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>42372417</v>
       </c>
@@ -10267,7 +10275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>8006550301040</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>41007785</v>
       </c>
@@ -10322,7 +10330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>3035542011365</v>
       </c>
@@ -10348,7 +10356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>5010391100703</v>
       </c>
@@ -10371,7 +10379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>3211203433220</v>
       </c>
@@ -10394,7 +10402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>4056489441229</v>
       </c>
@@ -10420,7 +10428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>3376374623204</v>
       </c>
@@ -10443,7 +10451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>3119780248186</v>
       </c>
@@ -10466,7 +10474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>3080216037462</v>
       </c>
@@ -10489,7 +10497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>8480000668516</v>
       </c>
@@ -10515,7 +10523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>3147690061007</v>
       </c>
@@ -10541,7 +10549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>8410283314244</v>
       </c>
@@ -10564,7 +10572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>3147690060703</v>
       </c>
@@ -10587,7 +10595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>3275130008289</v>
       </c>
@@ -10610,7 +10618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>8480000668431</v>
       </c>
@@ -10633,7 +10641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>8428922010228</v>
       </c>
@@ -10656,7 +10664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>8480000669223</v>
       </c>
@@ -10679,7 +10687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>3119783007483</v>
       </c>
@@ -10705,7 +10713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>8410035007844</v>
       </c>
@@ -10728,7 +10736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>8410221110150</v>
       </c>
@@ -10757,7 +10765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>8005130001530</v>
       </c>
@@ -10780,7 +10788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>8007253900660</v>
       </c>
@@ -10803,7 +10811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>8480000664815</v>
       </c>
@@ -10826,7 +10834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>5010106113127</v>
       </c>
@@ -10852,7 +10860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>3163937011000</v>
       </c>
@@ -10878,7 +10886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>3012990026301</v>
       </c>
@@ -10901,7 +10909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>5601077161097</v>
       </c>
@@ -10924,7 +10932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>3119780259625</v>
       </c>
@@ -10947,7 +10955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>5012523231965</v>
       </c>
@@ -10970,7 +10978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>5010493000765</v>
       </c>
@@ -10993,7 +11001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>3043700103821</v>
       </c>
@@ -11016,7 +11024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>5412983870023</v>
       </c>
@@ -11039,7 +11047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>723830000186</v>
       </c>
@@ -11062,7 +11070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>42253112</v>
       </c>
@@ -11085,7 +11093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>4104420209237</v>
       </c>
@@ -11108,7 +11116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>5051622070860</v>
       </c>
@@ -11131,7 +11139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>4316268419017</v>
       </c>
@@ -11157,7 +11165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>4100130011436</v>
       </c>
@@ -11183,7 +11191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>40341002</v>
       </c>
@@ -11206,7 +11214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>42141327</v>
       </c>
@@ -11229,7 +11237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>1784558</v>
       </c>
@@ -11252,7 +11260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>3332418006259</v>
       </c>
@@ -11275,7 +11283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>5900685007910</v>
       </c>
@@ -11298,7 +11306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>6430064997208</v>
       </c>
@@ -11321,7 +11329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>4311605482396</v>
       </c>
@@ -11338,7 +11346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>3308780003349</v>
       </c>
@@ -11355,7 +11363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>4005249001296</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>4011743002639</v>
       </c>
@@ -11401,7 +11409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>4015181204211</v>
       </c>
@@ -11424,7 +11432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>4015181448226</v>
       </c>
@@ -11447,7 +11455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>4388844102620</v>
       </c>
@@ -11473,7 +11481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>9028800624333</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>4035287052028</v>
       </c>
@@ -11519,7 +11527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>4388844085541</v>
       </c>
@@ -11542,7 +11550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>29009732</v>
       </c>
@@ -11565,7 +11573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>4000856003787</v>
       </c>
@@ -11588,7 +11596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>4006310651419</v>
       </c>
@@ -11605,7 +11613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>4018658668301</v>
       </c>
@@ -11628,7 +11636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>5391537510793</v>
       </c>
@@ -11651,7 +11659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>4102430076740</v>
       </c>
@@ -11674,7 +11682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>5701116213173</v>
       </c>
@@ -11697,7 +11705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>5054775859481</v>
       </c>
@@ -11720,7 +11728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>7300156575173</v>
       </c>
@@ -11743,7 +11751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>5014379003475</v>
       </c>
@@ -11766,7 +11774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>7610055100674</v>
       </c>
@@ -11789,7 +11797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>4025303149108</v>
       </c>
@@ -11812,7 +11820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>4260480370154</v>
       </c>
@@ -11835,7 +11843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>6001398115868</v>
       </c>
@@ -11858,7 +11866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>5011166015581</v>
       </c>
@@ -11881,7 +11889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>9311220087216</v>
       </c>
@@ -11904,7 +11912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>8028633001319</v>
       </c>
@@ -11927,7 +11935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>8008900007329</v>
       </c>
@@ -11950,7 +11958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>8002575540</v>
       </c>
@@ -11973,7 +11981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>8000353000056</v>
       </c>
@@ -11996,7 +12004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>7804303555037</v>
       </c>
@@ -12019,7 +12027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>7161757776938</v>
       </c>
@@ -12042,7 +12050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>6001108055187</v>
       </c>
@@ -12065,7 +12073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>5750000103540</v>
       </c>
@@ -12088,7 +12096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>5410316442558</v>
       </c>
@@ -12111,7 +12119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>5053947841699</v>
       </c>
@@ -12134,7 +12142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>5051140751302</v>
       </c>
@@ -12157,7 +12165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>5051277849033</v>
       </c>
@@ -12180,7 +12188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>5027882940403</v>
       </c>
@@ -12203,7 +12211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>5013626111277</v>
       </c>
@@ -12226,7 +12234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>5011932011519</v>
       </c>
@@ -12249,7 +12257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>5010677935005</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>5010677015707</v>
       </c>
@@ -12301,7 +12309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>5010677015806</v>
       </c>
@@ -12324,7 +12332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>5010494220278</v>
       </c>
@@ -12347,7 +12355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>5010204847450</v>
       </c>
@@ -12370,7 +12378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>5010019640161</v>
       </c>
@@ -12393,7 +12401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>5010017109851</v>
       </c>
@@ -12416,7 +12424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>5000462368729</v>
       </c>
@@ -12439,7 +12447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>5000289111003</v>
       </c>
@@ -12462,7 +12470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>4388844103702</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>4311596452941</v>
       </c>
@@ -12511,7 +12519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>4260279120229</v>
       </c>
@@ -12534,7 +12542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>4260033742162</v>
       </c>
@@ -12557,7 +12565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>4260033743756</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>4102430013653</v>
       </c>
@@ -12603,7 +12611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>4102430017125</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>4054500115012</v>
       </c>
@@ -12649,7 +12657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>4053400288611</v>
       </c>
@@ -12672,7 +12680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>4022391145517</v>
       </c>
@@ -12695,7 +12703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>4014086093432</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>4004315000348</v>
       </c>
@@ -12744,7 +12752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>4003301062100</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>4003301044908</v>
       </c>
@@ -12793,7 +12801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>4003301055744</v>
       </c>
@@ -12816,7 +12824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>4001212008019</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>4000486006622</v>
       </c>
@@ -12862,7 +12870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>3225820061704</v>
       </c>
@@ -12885,7 +12893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>3211209160342</v>
       </c>
@@ -12908,7 +12916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>3179077470195</v>
       </c>
@@ -12931,7 +12939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>3049614134852</v>
       </c>
@@ -12954,7 +12962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>659436260146</v>
       </c>
@@ -12977,7 +12985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>1469707</v>
       </c>
@@ -13000,7 +13008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>1469646</v>
       </c>
@@ -13023,7 +13031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>1469660</v>
       </c>
@@ -13046,7 +13054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>87000006478</v>
       </c>
@@ -13069,7 +13077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>87000652286</v>
       </c>
@@ -13092,7 +13100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>4003301044885</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>4053500002018</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>4388840013258</v>
       </c>
@@ -13161,7 +13169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>4316268332743</v>
       </c>
@@ -13184,7 +13192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>4009415402191</v>
       </c>
@@ -13207,7 +13215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>4014807211268</v>
       </c>
@@ -13230,7 +13238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>4003301054440</v>
       </c>
@@ -13253,7 +13261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>4260279120113</v>
       </c>
@@ -13276,7 +13284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>42278177</v>
       </c>
@@ -13299,7 +13307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>4014086010439</v>
       </c>
@@ -13322,7 +13330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>4045144700108</v>
       </c>
@@ -13345,7 +13353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>4005249007472</v>
       </c>
@@ -13368,7 +13376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>3770017281088</v>
       </c>
@@ -13391,7 +13399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>40885032</v>
       </c>
@@ -13414,7 +13422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>4002798021294</v>
       </c>
@@ -13437,7 +13445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>3175520018921</v>
       </c>
@@ -13460,7 +13468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>3660088160941</v>
       </c>
@@ -13483,7 +13491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>3308780029714</v>
       </c>
@@ -13506,7 +13514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>3308780000904</v>
       </c>
@@ -13529,7 +13537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>4103210273014</v>
       </c>
@@ -13552,7 +13560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>3596710456598</v>
       </c>
@@ -13575,7 +13583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>4250594205695</v>
       </c>
@@ -13598,7 +13606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>4053400205212</v>
       </c>
@@ -13621,7 +13629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>4013599167517</v>
       </c>
@@ -13644,7 +13652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>3770018391021</v>
       </c>
@@ -13667,7 +13675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>4101660005032</v>
       </c>
@@ -13693,7 +13701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>4061458001786</v>
       </c>
@@ -13716,7 +13724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>5000291020805</v>
       </c>
@@ -13739,7 +13747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>3850131005552</v>
       </c>
@@ -13762,7 +13770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>5202413002014</v>
       </c>
@@ -13785,7 +13793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>5056025439733</v>
       </c>
@@ -13808,7 +13816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>4008005050019</v>
       </c>
@@ -13831,7 +13839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>3263858160112</v>
       </c>
@@ -13854,7 +13862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>8017310112</v>
       </c>
@@ -13877,7 +13885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>20004552</v>
       </c>
@@ -13900,7 +13908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>3271470752714</v>
       </c>
@@ -13923,7 +13931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>3559010008102</v>
       </c>
@@ -13946,7 +13954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>3560070793921</v>
       </c>
@@ -13969,7 +13977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>3186120102491</v>
       </c>
@@ -13992,7 +14000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>3032230117019</v>
       </c>
@@ -14015,7 +14023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>3119780015184</v>
       </c>
@@ -14038,7 +14046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>5010019601797</v>
       </c>
@@ -14061,7 +14069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>5010327206219</v>
       </c>
@@ -14084,7 +14092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>8594403110166</v>
       </c>
@@ -14107,7 +14115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>3119780257447</v>
       </c>
@@ -14130,7 +14138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>29057771</v>
       </c>
@@ -14147,7 +14155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>3760205000027</v>
       </c>
@@ -14170,7 +14178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>3257983768817</v>
       </c>
@@ -14193,7 +14201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>4260002350824</v>
       </c>
@@ -14216,7 +14224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>4005971387323</v>
       </c>
@@ -14245,7 +14253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>3760004344117</v>
       </c>
@@ -14268,7 +14276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>3760004341826</v>
       </c>
@@ -14291,7 +14299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>3760013724276</v>
       </c>
@@ -14314,7 +14322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>3222475471278</v>
       </c>
@@ -14337,7 +14345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>29011575</v>
       </c>
@@ -14360,7 +14368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>4005249008882</v>
       </c>
@@ -14383,7 +14391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>3660989145801</v>
       </c>
@@ -14406,7 +14414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>3257984513614</v>
       </c>
@@ -14429,7 +14437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>3156140750255</v>
       </c>
@@ -14452,7 +14460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>3267683233201</v>
       </c>
@@ -14475,7 +14483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>3198129257393</v>
       </c>
@@ -14498,7 +14506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>20116132</v>
       </c>
@@ -14521,7 +14529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>4005758228313</v>
       </c>
@@ -14538,7 +14546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>42392323</v>
       </c>
@@ -14561,7 +14569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>8850999111001</v>
       </c>
@@ -14590,7 +14598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>8007615000618</v>
       </c>
@@ -14613,7 +14621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>8002095704001</v>
       </c>
@@ -14636,7 +14644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>8850999113005</v>
       </c>
@@ -14665,7 +14673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>3035131115115</v>
       </c>
@@ -14688,7 +14696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>4003301018411</v>
       </c>
@@ -14711,7 +14719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>4006452008546</v>
       </c>
@@ -14737,7 +14745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>4006310991102</v>
       </c>
@@ -14760,7 +14768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>3380330002354</v>
       </c>
@@ -14783,7 +14791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>4101660000563</v>
       </c>
@@ -14806,7 +14814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>4260279120335</v>
       </c>
@@ -14829,7 +14837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>4004661067019</v>
       </c>
@@ -14852,7 +14860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>4006310993069</v>
       </c>
@@ -14875,7 +14883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>4260340680379</v>
       </c>
@@ -14898,7 +14906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>4260002351326</v>
       </c>
@@ -14921,7 +14929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>3080216033617</v>
       </c>
@@ -14944,7 +14952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>3245592420028</v>
       </c>
@@ -14967,7 +14975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>3171870009299</v>
       </c>
@@ -14990,7 +14998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>3119780258208</v>
       </c>
@@ -15013,7 +15021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>42111702</v>
       </c>
@@ -15036,7 +15044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>3119780259960</v>
       </c>
@@ -15059,7 +15067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>4002631016715</v>
       </c>
@@ -15085,7 +15093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>8480017028655</v>
       </c>
@@ -15108,7 +15116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>3453670000356</v>
       </c>
@@ -15131,7 +15139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>3263855092003</v>
       </c>
@@ -15154,7 +15162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>2000000021502</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>3760138080165</v>
       </c>
@@ -15200,7 +15208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>3211209222460</v>
       </c>
@@ -15223,7 +15231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>5410228091448</v>
       </c>
@@ -15246,7 +15254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>5410228218067</v>
       </c>
@@ -15269,7 +15277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>3263857401315</v>
       </c>
@@ -15292,7 +15300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>3770000406078</v>
       </c>
@@ -15315,7 +15323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>3080216027616</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>3080216024103</v>
       </c>
@@ -15361,7 +15369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>5000281003627</v>
       </c>
@@ -15384,7 +15392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>5411098110000</v>
       </c>
@@ -15407,7 +15415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>26003061</v>
       </c>
@@ -15430,7 +15438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>3484700000107</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>3029440005137</v>
       </c>
@@ -15476,7 +15484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>3760170090719</v>
       </c>
@@ -15499,7 +15507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>3760076083112</v>
       </c>
@@ -15522,7 +15530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>3211209269533</v>
       </c>
@@ -15545,7 +15553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>3760004341819</v>
       </c>
@@ -15568,7 +15576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>3250390145240</v>
       </c>
@@ -15591,7 +15599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>3257731211305</v>
       </c>
@@ -15614,7 +15622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>4001432087238</v>
       </c>
@@ -15637,7 +15645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>3250391868261</v>
       </c>
@@ -15660,7 +15668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>3032230101469</v>
       </c>
@@ -15683,7 +15691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>3245590010504</v>
       </c>
@@ -15706,7 +15714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>3500610054556</v>
       </c>
@@ -15729,7 +15737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>8022840750084</v>
       </c>
@@ -15752,7 +15760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>3260980027009</v>
       </c>
@@ -15775,7 +15783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>810885011042</v>
       </c>
@@ -15798,7 +15806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>8414167080089</v>
       </c>
@@ -15821,7 +15829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>7003659875428</v>
       </c>
@@ -15844,7 +15852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>8791197826017</v>
       </c>
@@ -15867,7 +15875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>3228472748276</v>
       </c>
@@ -15890,7 +15898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>3257980129390</v>
       </c>
@@ -15913,7 +15921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>3257980129413</v>
       </c>
@@ -15936,7 +15944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>3257981174849</v>
       </c>
@@ -15959,7 +15967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>3257981947450</v>
       </c>
@@ -15982,7 +15990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>3468178531110</v>
       </c>
@@ -16005,7 +16013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>3288842013175</v>
       </c>
@@ -16028,7 +16036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>3662312011296</v>
       </c>
@@ -16051,7 +16059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>8437013183062</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>5607248000035</v>
       </c>
@@ -16097,7 +16105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>3132590026508</v>
       </c>
@@ -16120,7 +16128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>3579933113981</v>
       </c>
@@ -16143,7 +16151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>3306380116605</v>
       </c>
@@ -16166,7 +16174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>3564700710456</v>
       </c>
@@ -16189,7 +16197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>3256550212173</v>
       </c>
@@ -16212,7 +16220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>20090685</v>
       </c>
@@ -16235,7 +16243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>20141356</v>
       </c>
@@ -16261,7 +16269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>3379974200301</v>
       </c>
@@ -16284,7 +16292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>5602079054103</v>
       </c>
@@ -16307,7 +16315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>5010867203969</v>
       </c>
@@ -16330,7 +16338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>3770001785028</v>
       </c>
@@ -16353,7 +16361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>3255537513043</v>
       </c>
@@ -16376,7 +16384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>42143697</v>
       </c>
@@ -16399,7 +16407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>5010549304496</v>
       </c>
@@ -16422,7 +16430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>3438910864240</v>
       </c>
@@ -16445,7 +16453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>3438910865698</v>
       </c>
@@ -16468,7 +16476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>3438910869146</v>
       </c>
@@ -16491,7 +16499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>3267130003111</v>
       </c>
@@ -16514,7 +16522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>5010144002308</v>
       </c>
@@ -16537,7 +16545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>2000000021432</v>
       </c>
@@ -16560,7 +16568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>3391185730057</v>
       </c>
@@ -16583,7 +16591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>3011932023835</v>
       </c>
@@ -16606,7 +16614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>3564980000094</v>
       </c>
@@ -16629,7 +16637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>20072964</v>
       </c>
@@ -16652,7 +16660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>7461323129459</v>
       </c>
@@ -16675,7 +16683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>3173860701718</v>
       </c>
@@ -16698,7 +16706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
         <v>3381661000347</v>
       </c>
@@ -16721,7 +16729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>8009710006908</v>
       </c>
@@ -16738,7 +16746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>8437007370775</v>
       </c>
@@ -16761,7 +16769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>8008530075538</v>
       </c>
@@ -16784,7 +16792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>3379974200059</v>
       </c>
@@ -16807,7 +16815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>3257981230651</v>
       </c>
@@ -16830,7 +16838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>3258561310466</v>
       </c>
@@ -16853,7 +16861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>3760182600029</v>
       </c>
@@ -16876,7 +16884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>3119780260560</v>
       </c>
@@ -16899,7 +16907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>3163937163075</v>
       </c>
@@ -16922,7 +16930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>3058080079734</v>
       </c>
@@ -16945,7 +16953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>3336770003000</v>
       </c>
@@ -16968,7 +16976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>4260095551375</v>
       </c>
@@ -16991,7 +16999,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>5996429006738</v>
       </c>
@@ -17014,7 +17022,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>5999882230115</v>
       </c>
@@ -17040,7 +17048,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>5999885392100</v>
       </c>
@@ -17063,7 +17071,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>5999880890427</v>
       </c>
@@ -17086,7 +17094,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>5998248130427</v>
       </c>
@@ -17109,7 +17117,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>5999549642275</v>
       </c>
@@ -17135,7 +17143,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>5999883627112</v>
       </c>
@@ -17158,7 +17166,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>5998248131639</v>
       </c>
@@ -17181,7 +17189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>5999042135199</v>
       </c>
@@ -17204,7 +17212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>5999068813682</v>
       </c>
@@ -17227,7 +17235,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>5998248130625</v>
       </c>
@@ -17250,7 +17258,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>5999886664077</v>
       </c>
@@ -17273,7 +17281,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>5999886664053</v>
       </c>
@@ -17296,7 +17304,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>87712101249</v>
       </c>
@@ -17319,7 +17327,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>5996429007056</v>
       </c>
@@ -17342,7 +17350,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
         <v>3379974144018</v>
       </c>
@@ -17365,7 +17373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>85000017746</v>
       </c>
@@ -17388,7 +17396,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
         <v>3256550220598</v>
       </c>
@@ -17411,7 +17419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>3250391960255</v>
       </c>
@@ -17434,7 +17442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
         <v>3660989143012</v>
       </c>
@@ -17457,7 +17465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>6008922001260</v>
       </c>
@@ -17480,7 +17488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
         <v>3152908306108</v>
       </c>
@@ -17503,7 +17511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>8008863031331</v>
       </c>
@@ -17526,7 +17534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
         <v>8437013091671</v>
       </c>
@@ -17549,7 +17557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>5021692117819</v>
       </c>
@@ -17572,7 +17580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
         <v>26044712</v>
       </c>
@@ -17595,7 +17603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>26046983</v>
       </c>
@@ -17618,7 +17626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
         <v>20005160</v>
       </c>
@@ -17641,7 +17649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>3242615500217</v>
       </c>
@@ -17664,7 +17672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
         <v>3306380116582</v>
       </c>
@@ -17687,7 +17695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>3259354125700</v>
       </c>
@@ -17710,7 +17718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
         <v>2000000044392</v>
       </c>
@@ -17733,7 +17741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>3660989146099</v>
       </c>
@@ -17756,7 +17764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
         <v>3514120106216</v>
       </c>
@@ -17779,7 +17787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>3760176171627</v>
       </c>
@@ -17802,7 +17810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
         <v>3760201720004</v>
       </c>
@@ -17825,7 +17833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>8002374000992</v>
       </c>
@@ -17848,7 +17856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
         <v>5450064913085</v>
       </c>
@@ -17871,7 +17879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>8410635039153</v>
       </c>
@@ -17894,7 +17902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
         <v>3777741785363</v>
       </c>
@@ -17917,7 +17925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>3340180000863</v>
       </c>
@@ -17940,7 +17948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
         <v>3032230100301</v>
       </c>
@@ -17963,7 +17971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>5060006410024</v>
       </c>
@@ -17986,7 +17994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
         <v>5450064000488</v>
       </c>
@@ -18009,7 +18017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>3760009980013</v>
       </c>
@@ -18032,7 +18040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
         <v>738316</v>
       </c>
@@ -18055,7 +18063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>2000000048086</v>
       </c>
@@ -18078,7 +18086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
         <v>3245390026910</v>
       </c>
@@ -18101,7 +18109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>6007676002240</v>
       </c>
@@ -18124,7 +18132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
         <v>2000000021421</v>
       </c>
@@ -18147,7 +18155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>3119780257294</v>
       </c>
@@ -18170,7 +18178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
         <v>3234786113907</v>
       </c>
@@ -18193,7 +18201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>3040072460743</v>
       </c>
@@ -18216,7 +18224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
         <v>3147690045908</v>
       </c>
@@ -18239,7 +18247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>3339451004747</v>
       </c>
@@ -18262,7 +18270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
         <v>8588002356520</v>
       </c>
@@ -18285,7 +18293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>8712000029685</v>
       </c>
@@ -18308,7 +18316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
         <v>3529592105704</v>
       </c>
@@ -18331,7 +18339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <v>3179077541925</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
         <v>3219850042772</v>
       </c>
@@ -18377,7 +18385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <v>3381660000584</v>
       </c>
@@ -18400,7 +18408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
         <v>8500000191026</v>
       </c>
@@ -18423,7 +18431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <v>3217690050025</v>
       </c>
@@ -18446,7 +18454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
         <v>3323562001009</v>
       </c>
@@ -18469,7 +18477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <v>5000281035338</v>
       </c>
@@ -18492,7 +18500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
         <v>3119780243570</v>
       </c>
@@ -18515,7 +18523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <v>3119780208982</v>
       </c>
@@ -18538,7 +18546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
         <v>3119780259069</v>
       </c>
@@ -18561,7 +18569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <v>20118207</v>
       </c>
@@ -18584,7 +18592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
         <v>3333950101006</v>
       </c>
@@ -18607,7 +18615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <v>3416185012986</v>
       </c>
@@ -18630,7 +18638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
         <v>3416180014732</v>
       </c>
@@ -18656,7 +18664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <v>3760057190471</v>
       </c>
@@ -18679,7 +18687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
         <v>3142920004441</v>
       </c>
@@ -18702,7 +18710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="467" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <v>8003230002518</v>
       </c>
@@ -18725,7 +18733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
         <v>5602417104071</v>
       </c>
@@ -18748,7 +18756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="469" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <v>3270426</v>
       </c>
@@ -18771,7 +18779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="470" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
         <v>3163937860004</v>
       </c>
@@ -18797,7 +18805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <v>3119780208920</v>
       </c>
@@ -18820,7 +18828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
         <v>3661935820018</v>
       </c>
@@ -18843,7 +18851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <v>3760027050422</v>
       </c>
@@ -18866,7 +18874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="474" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
         <v>3760027050385</v>
       </c>
@@ -18889,7 +18897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <v>3162330500111</v>
       </c>
@@ -18912,7 +18920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
         <v>3263857600114</v>
       </c>
@@ -18935,7 +18943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <v>3700232070334</v>
       </c>
@@ -18958,7 +18966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
         <v>3230711726020</v>
       </c>
@@ -18981,7 +18989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <v>3423290107735</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
         <v>3433330058439</v>
       </c>
@@ -19027,7 +19035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <v>3438910865575</v>
       </c>
@@ -19050,7 +19058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="482" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
         <v>5000299610633</v>
       </c>
@@ -19073,7 +19081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="483" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <v>3770007311009</v>
       </c>
@@ -19096,7 +19104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
         <v>5016878000160</v>
       </c>
@@ -19119,7 +19127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <v>3180280415545</v>
       </c>
@@ -19142,7 +19150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
         <v>3559010035634</v>
       </c>
@@ -19165,7 +19173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <v>3760093623957</v>
       </c>
@@ -19188,7 +19196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
         <v>3250390423881</v>
       </c>
@@ -19211,7 +19219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <v>3250390167105</v>
       </c>
@@ -19234,7 +19242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
         <v>8410490263120</v>
       </c>
@@ -19257,7 +19265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <v>3242615500200</v>
       </c>
@@ -19280,7 +19288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
         <v>3760091220462</v>
       </c>
@@ -19303,7 +19311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <v>3245398909918</v>
       </c>
@@ -19326,7 +19334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
         <v>3014400016360</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <v>3047960010011</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
         <v>42217887</v>
       </c>
@@ -19395,7 +19403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <v>3082260000157</v>
       </c>
@@ -19418,7 +19426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="498" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
         <v>3163937103460</v>
       </c>
@@ -19441,7 +19449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="499" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <v>3660989151925</v>
       </c>
@@ -19458,7 +19466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="500" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
         <v>3245393027891</v>
       </c>
@@ -19481,7 +19489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="501" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <v>3012992172006</v>
       </c>
@@ -19504,7 +19512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="502" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
         <v>3377450000025</v>
       </c>
@@ -19527,7 +19535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <v>3559010035115</v>
       </c>
@@ -19550,7 +19558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
         <v>3760114240620</v>
       </c>
@@ -19573,7 +19581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>3119783012548</v>
       </c>
@@ -19596,7 +19604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
         <v>3049197210875</v>
       </c>
@@ -19619,7 +19627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>3760039903112</v>
       </c>
@@ -19642,7 +19650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
         <v>3571551607002</v>
       </c>
@@ -19665,7 +19673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>3245414974166</v>
       </c>
@@ -19688,7 +19696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
         <v>3119780257171</v>
       </c>
@@ -19711,7 +19719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="511" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>3120580006999</v>
       </c>
@@ -19734,7 +19742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="512" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
         <v>3256811113645</v>
       </c>
@@ -19757,7 +19765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="513" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <v>26009438</v>
       </c>
@@ -19780,7 +19788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="514" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
         <v>3245414984219</v>
       </c>
@@ -19803,7 +19811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <v>3323562109019</v>
       </c>
@@ -19826,7 +19834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
         <v>3435565601312</v>
       </c>
@@ -19849,7 +19857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <v>3295890206114</v>
       </c>
@@ -19872,7 +19880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
         <v>3250391084456</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <v>3328291200136</v>
       </c>
@@ -19918,7 +19926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
         <v>3760011901235</v>
       </c>
@@ -19941,7 +19949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <v>3336770006117</v>
       </c>
@@ -19964,7 +19972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
         <v>3760107180056</v>
       </c>
@@ -19987,7 +19995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <v>3760227760022</v>
       </c>
@@ -20010,7 +20018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
         <v>3343380028279</v>
       </c>
@@ -20033,7 +20041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>3760092605114</v>
       </c>
@@ -20056,7 +20064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
         <v>3579132015017</v>
       </c>
@@ -20079,7 +20087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>3760177030428</v>
       </c>
@@ -20102,7 +20110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
         <v>2000000069130</v>
       </c>
@@ -20125,7 +20133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>2000000069099</v>
       </c>
@@ -20148,7 +20156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>2000000069141</v>
       </c>
@@ -20171,7 +20179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>3242614005003</v>
       </c>
@@ -20194,7 +20202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>8414606636419</v>
       </c>
@@ -20217,7 +20225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>3018333001134</v>
       </c>
@@ -20240,7 +20248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>3185370479339</v>
       </c>
@@ -20263,7 +20271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>3254569986092</v>
       </c>
@@ -20286,7 +20294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
         <v>3264066206852</v>
       </c>
@@ -20309,7 +20317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>3660989197213</v>
       </c>
@@ -20332,7 +20340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
         <v>3760056962253</v>
       </c>
@@ -20355,7 +20363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>2000000072398</v>
       </c>
@@ -20378,7 +20386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
         <v>3263855090276</v>
       </c>
@@ -20401,7 +20409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <v>2000000072518</v>
       </c>
@@ -20424,7 +20432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
         <v>3186127786298</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <v>3303280102455</v>
       </c>
@@ -20470,7 +20478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
         <v>3250390033813</v>
       </c>
@@ -20493,7 +20501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <v>3013010001094</v>
       </c>
@@ -20516,7 +20524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
         <v>20950866</v>
       </c>
@@ -20539,7 +20547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <v>3211203448347</v>
       </c>
@@ -20562,7 +20570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
         <v>3262850038900</v>
       </c>
@@ -20585,7 +20593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <v>3423290193660</v>
       </c>
@@ -20608,7 +20616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
         <v>3192370086375</v>
       </c>
@@ -20631,7 +20639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <v>3245593000014</v>
       </c>
@@ -20654,7 +20662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
         <v>3394215741160</v>
       </c>
@@ -20677,7 +20685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <v>3047100093188</v>
       </c>
@@ -20700,7 +20708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
         <v>3147690096108</v>
       </c>
@@ -20723,7 +20731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <v>3012992112033</v>
       </c>
@@ -20746,7 +20754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
         <v>3012992122049</v>
       </c>
@@ -20769,7 +20777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <v>3163937635008</v>
       </c>
@@ -20792,7 +20800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
         <v>5010019601773</v>
       </c>
@@ -20815,7 +20823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <v>3104760003886</v>
       </c>
@@ -20838,7 +20846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
         <v>8000353006188</v>
       </c>
@@ -20861,7 +20869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <v>3119780042531</v>
       </c>
@@ -20884,7 +20892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
         <v>3119780256914</v>
       </c>
@@ -20907,7 +20915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <v>5410228197089</v>
       </c>
@@ -20930,7 +20938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
         <v>5411681014531</v>
       </c>
@@ -20953,7 +20961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <v>3119780256150</v>
       </c>
@@ -20976,7 +20984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
         <v>3119780259816</v>
       </c>
@@ -20999,7 +21007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <v>3271470250555</v>
       </c>
@@ -21022,7 +21030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
         <v>3250391868230</v>
       </c>
@@ -21045,7 +21053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <v>3119780259700</v>
       </c>
@@ -21068,7 +21076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
         <v>3198129251483</v>
       </c>
@@ -21091,7 +21099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <v>3596710301164</v>
       </c>
@@ -21114,7 +21122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
         <v>20463625</v>
       </c>
@@ -21137,7 +21145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <v>7312040017355</v>
       </c>
@@ -21160,7 +21168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
         <v>3254560513389</v>
       </c>
@@ -21183,7 +21191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <v>3182280067199</v>
       </c>
@@ -21206,7 +21214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
         <v>3394215961483</v>
       </c>
@@ -21229,7 +21237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <v>3263857689317</v>
       </c>
@@ -21252,7 +21260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
         <v>3256225722334</v>
       </c>
@@ -21275,7 +21283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <v>20034979</v>
       </c>
@@ -21298,7 +21306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
         <v>3770004927036</v>
       </c>
@@ -21321,7 +21329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <v>3376370109498</v>
       </c>
@@ -21344,7 +21352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
         <v>3260985015193</v>
       </c>
@@ -21367,7 +21375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <v>3120581102652</v>
       </c>
@@ -21390,7 +21398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
         <v>3186127786267</v>
       </c>
@@ -21413,7 +21421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <v>3244083100104</v>
       </c>
@@ -21436,7 +21444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
         <v>3253951000118</v>
       </c>
@@ -21456,7 +21464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <v>3259869654917</v>
       </c>
@@ -21479,7 +21487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
         <v>3257980164162</v>
       </c>
@@ -21502,7 +21510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <v>3259869400309</v>
       </c>
@@ -21525,7 +21533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
         <v>3299641100010</v>
       </c>
@@ -21548,7 +21556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <v>3700558806266</v>
       </c>
@@ -21571,7 +21579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
         <v>2000000027062</v>
       </c>
@@ -21594,7 +21602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="593" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <v>3045710031941</v>
       </c>
@@ -21617,7 +21625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="594" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
         <v>3012993035249</v>
       </c>
@@ -21640,7 +21648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="595" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <v>3192371109882</v>
       </c>
@@ -21663,7 +21671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="596" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
         <v>3211209175933</v>
       </c>
@@ -21686,7 +21694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="597" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <v>3192371096748</v>
       </c>
@@ -21709,7 +21717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="598" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
         <v>3192371097134</v>
       </c>
@@ -21732,7 +21740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="599" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <v>3180280413534</v>
       </c>
@@ -21755,7 +21763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="600" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
         <v>3350031914447</v>
       </c>
@@ -21778,7 +21786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="601" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <v>3350033172562</v>
       </c>
@@ -21801,7 +21809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="602" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
         <v>3222472653318</v>
       </c>
@@ -21827,7 +21835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="603" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <v>3254560527362</v>
       </c>
@@ -21850,7 +21858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="604" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
         <v>3254560527461</v>
       </c>
@@ -21873,7 +21881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="605" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <v>3257983871630</v>
       </c>
@@ -21896,7 +21904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="606" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
         <v>3289252610015</v>
       </c>
@@ -21919,7 +21927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="607" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <v>3245414974173</v>
       </c>
@@ -21942,7 +21950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="608" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
         <v>3270190126720</v>
       </c>
@@ -21965,7 +21973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="609" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <v>3180290037935</v>
       </c>
@@ -21988,7 +21996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="610" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
         <v>3047960010479</v>
       </c>
@@ -22011,7 +22019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="611" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <v>3700558805924</v>
       </c>
@@ -22034,7 +22042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="612" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
         <v>3013060203622</v>
       </c>
@@ -22057,7 +22065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="613" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
         <v>3147690059103</v>
       </c>
@@ -22080,7 +22088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
         <v>3270190120018</v>
       </c>
@@ -22106,7 +22114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="615" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
         <v>3271915010751</v>
       </c>
@@ -22129,7 +22137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="616" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
         <v>5410316987417</v>
       </c>
@@ -22152,7 +22160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="617" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
         <v>3500610095429</v>
       </c>
@@ -22175,7 +22183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
         <v>3428660760701</v>
       </c>
@@ -22198,7 +22206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="619" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
         <v>3012992132048</v>
       </c>
@@ -22221,7 +22229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="620" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
         <v>20835118</v>
       </c>
@@ -22244,7 +22252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="621" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
         <v>20015619</v>
       </c>
@@ -22267,7 +22275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="622" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
         <v>20025113</v>
       </c>
@@ -22290,7 +22298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="623" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
         <v>3014400012164</v>
       </c>
@@ -22313,7 +22321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="624" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A624" s="3">
         <v>3113910312013</v>
       </c>
@@ -22336,7 +22344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="625" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
         <v>5010677915007</v>
       </c>
@@ -22365,7 +22373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="626" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A626" s="3">
         <v>3564709025766</v>
       </c>
@@ -22388,7 +22396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="627" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
         <v>3299152386217</v>
       </c>
@@ -22411,7 +22419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A628" s="3">
         <v>5010103931519</v>
       </c>
@@ -22434,7 +22442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="629" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
         <v>3760068451684</v>
       </c>
@@ -22457,7 +22465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="630" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A630" s="3">
         <v>3770006626012</v>
       </c>
@@ -22480,7 +22488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="631" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
         <v>5014379001389</v>
       </c>
@@ -22503,7 +22511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="632" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A632" s="3">
         <v>3032230107935</v>
       </c>
@@ -22526,7 +22534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="633" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
         <v>3112729049066</v>
       </c>
@@ -22549,7 +22557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="634" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A634" s="3">
         <v>3770006626005</v>
       </c>
@@ -22572,7 +22580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="635" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
         <v>2000000021540</v>
       </c>
@@ -22595,7 +22603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="636" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A636" s="3">
         <v>3564700740644</v>
       </c>
@@ -22618,7 +22626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="637" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
         <v>3184520000492</v>
       </c>
@@ -22641,7 +22649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A638" s="3">
         <v>3760201720011</v>
       </c>
@@ -22664,7 +22672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="639" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
         <v>3443210000137</v>
       </c>
@@ -22687,7 +22695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="640" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A640" s="3">
         <v>3119780257720</v>
       </c>
@@ -22710,7 +22718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
         <v>3233990000539</v>
       </c>
@@ -22733,7 +22741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A642" s="3">
         <v>3182520184747</v>
       </c>
@@ -22756,7 +22764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
         <v>3250390005964</v>
       </c>
@@ -22779,7 +22787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A644" s="3">
         <v>3760171310014</v>
       </c>
@@ -22802,7 +22810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
         <v>3162330500043</v>
       </c>
@@ -22825,7 +22833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A646" s="3">
         <v>3234783103901</v>
       </c>
@@ -22848,7 +22856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
         <v>3596710446247</v>
       </c>
@@ -22871,7 +22879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A648" s="3">
         <v>3391180002661</v>
       </c>
@@ -22894,7 +22902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
         <v>2000000021347</v>
       </c>
@@ -22917,7 +22925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A650" s="3">
         <v>7061111731170</v>
       </c>
@@ -22940,7 +22948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
         <v>3119780015306</v>
       </c>
@@ -22963,7 +22971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A652" s="3">
         <v>3760077980656</v>
       </c>
@@ -22986,7 +22994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
         <v>3484700000909</v>
       </c>
@@ -23009,7 +23017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A654" s="3">
         <v>5099873003220</v>
       </c>
@@ -23032,7 +23040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
         <v>3222471361443</v>
       </c>
@@ -23055,7 +23063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A656" s="3">
         <v>3256550202440</v>
       </c>
@@ -23078,7 +23086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
         <v>3256550202204</v>
       </c>
@@ -23101,7 +23109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A658" s="3">
         <v>3242612100397</v>
       </c>
@@ -23124,7 +23132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
         <v>3434880008141</v>
       </c>
@@ -23147,7 +23155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A660" s="3">
         <v>3271914700332</v>
       </c>
@@ -23170,7 +23178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
         <v>3271914600335</v>
       </c>
@@ -23193,7 +23201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A662" s="3">
         <v>5010327000497</v>
       </c>
@@ -23216,7 +23224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
         <v>5902738884554</v>
       </c>
@@ -23239,7 +23247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A664" s="3">
         <v>3770005314125</v>
       </c>
@@ -23262,7 +23270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
         <v>3245396157595</v>
       </c>
@@ -23285,7 +23293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A666" s="3">
         <v>3119780209088</v>
       </c>
@@ -23308,7 +23316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
         <v>3263857410119</v>
       </c>
@@ -23331,7 +23339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A668" s="3">
         <v>5410913000588</v>
       </c>
@@ -23354,7 +23362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
         <v>3596710446230</v>
       </c>
@@ -23377,7 +23385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A670" s="3">
         <v>3516459012305</v>
       </c>
@@ -23400,7 +23408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
         <v>3107872000606</v>
       </c>
@@ -23423,7 +23431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A672" s="3">
         <v>3660088111257</v>
       </c>
@@ -23446,7 +23454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="673" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
         <v>3660088138728</v>
       </c>
@@ -23469,7 +23477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="674" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A674" s="3">
         <v>3423290175468</v>
       </c>
@@ -23492,7 +23500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="675" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
         <v>3336770000573</v>
       </c>
@@ -23515,7 +23523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="676" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A676" s="3">
         <v>3292360002108</v>
       </c>
@@ -23529,7 +23537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="677" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
         <v>4603514002407</v>
       </c>
@@ -23552,7 +23560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="678" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A678" s="3">
         <v>3104760003855</v>
       </c>
@@ -23575,7 +23583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="679" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
         <v>3264066215748</v>
       </c>
@@ -23598,7 +23606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="680" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A680" s="3">
         <v>3270190112457</v>
       </c>
@@ -23621,7 +23629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="681" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
         <v>3181250069904</v>
       </c>
@@ -23644,7 +23652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="682" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A682" s="3">
         <v>3211209254461</v>
       </c>
@@ -23667,7 +23675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="683" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
         <v>2000000111628</v>
       </c>
@@ -23690,7 +23698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="684" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A684" s="3">
         <v>3339451000930</v>
       </c>
@@ -23713,7 +23721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="685" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
         <v>3014409004498</v>
       </c>
@@ -23736,7 +23744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="686" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A686" s="3">
         <v>3770008983106</v>
       </c>
@@ -23759,7 +23767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="687" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
         <v>3254569114334</v>
       </c>
@@ -23782,7 +23790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="688" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A688" s="3">
         <v>3254565162155</v>
       </c>
@@ -23805,7 +23813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="689" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
         <v>3254560826823</v>
       </c>
@@ -23828,7 +23836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="690" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A690" s="3">
         <v>20258566</v>
       </c>
@@ -23851,7 +23859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="691" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
         <v>3251091200511</v>
       </c>
@@ -23874,7 +23882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="692" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A692" s="3">
         <v>3435710301005</v>
       </c>
@@ -23897,7 +23905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="693" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
         <v>3245412988219</v>
       </c>
@@ -23920,7 +23928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="694" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A694" s="3">
         <v>3484700000978</v>
       </c>
@@ -23943,7 +23951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="695" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
         <v>3245414948709</v>
       </c>
@@ -23966,7 +23974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="696" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A696" s="3">
         <v>3174360078638</v>
       </c>
@@ -23989,7 +23997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="697" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
         <v>3499603704038</v>
       </c>
@@ -24012,7 +24020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A698" s="3">
         <v>3596710440160</v>
       </c>
@@ -24035,7 +24043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="699" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
         <v>3179071003917</v>
       </c>
@@ -24058,7 +24066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="700" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A700" s="3">
         <v>3604894719818</v>
       </c>
@@ -24081,7 +24089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="701" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
         <v>3256222973111</v>
       </c>
@@ -24104,7 +24112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="702" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A702" s="3">
         <v>3013010005412</v>
       </c>
@@ -24127,7 +24135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="703" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
         <v>3245392414630</v>
       </c>
@@ -24150,7 +24158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="704" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A704" s="3">
         <v>3248840250019</v>
       </c>
@@ -24173,7 +24181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="705" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
         <v>20065515</v>
       </c>
@@ -24190,7 +24198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="706" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A706" s="3">
         <v>20025007</v>
       </c>
@@ -24213,7 +24221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="707" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
         <v>3035540002303</v>
       </c>
@@ -24236,7 +24244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="708" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A708" s="3">
         <v>5425031460015</v>
       </c>
@@ -24259,7 +24267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="709" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
         <v>3760055360371</v>
       </c>
@@ -24282,7 +24290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="710" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A710" s="3">
         <v>5425031010340</v>
       </c>
@@ -24305,7 +24313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="711" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
         <v>3257980002914</v>
       </c>
@@ -24328,7 +24336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="712" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A712" s="3">
         <v>3245390735775</v>
       </c>
@@ -24345,7 +24353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="713" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
         <v>3080216048604</v>
       </c>
@@ -24368,7 +24376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="714" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A714" s="3">
         <v>3572860001413</v>
       </c>
@@ -24391,7 +24399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="715" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
         <v>3260425313001</v>
       </c>
@@ -24414,7 +24422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="716" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A716" s="3">
         <v>5711474000117</v>
       </c>
@@ -24437,7 +24445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="717" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
         <v>3596710286256</v>
       </c>
@@ -24460,7 +24468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A718" s="3">
         <v>3245415060240</v>
       </c>
@@ -24483,7 +24491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="719" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
         <v>3163937632007</v>
       </c>
@@ -24506,7 +24514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="720" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A720" s="3">
         <v>26074870</v>
       </c>
@@ -24532,7 +24540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="721" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
         <v>3254565237389</v>
       </c>
@@ -24555,7 +24563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="722" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A722" s="3">
         <v>3760146530690</v>
       </c>
@@ -24578,7 +24586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="723" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
         <v>7061112740904</v>
       </c>
@@ -24601,7 +24609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="724" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A724" s="3">
         <v>7061112172330</v>
       </c>
@@ -24624,7 +24632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="725" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
         <v>3760055362443</v>
       </c>
@@ -24647,7 +24655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="726" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A726" s="3">
         <v>3760089131039</v>
       </c>
@@ -24670,7 +24678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="727" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
         <v>3760096020081</v>
       </c>
@@ -24693,7 +24701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A728" s="3">
         <v>3760096020050</v>
       </c>
@@ -24716,7 +24724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="729" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
         <v>3760096020067</v>
       </c>
@@ -24739,7 +24747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="730" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A730" s="3">
         <v>5014379002560</v>
       </c>
@@ -24762,7 +24770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="731" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
         <v>3180290028612</v>
       </c>
@@ -24785,7 +24793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="732" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A732" s="3">
         <v>6001108028044</v>
       </c>
@@ -24811,7 +24819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="733" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
         <v>8588003786418</v>
       </c>
@@ -24834,7 +24842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="734" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A734" s="3">
         <v>2000000037124</v>
       </c>
@@ -24857,7 +24865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="735" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
         <v>3436804600516</v>
       </c>
@@ -24880,7 +24888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="736" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A736" s="3">
         <v>3660088160873</v>
       </c>
@@ -24903,7 +24911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="737" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
         <v>20190363</v>
       </c>
@@ -24926,7 +24934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="738" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A738" s="3">
         <v>3274510003708</v>
       </c>
@@ -24949,7 +24957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="739" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
         <v>14886946</v>
       </c>
@@ -24972,7 +24980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="740" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A740" s="3">
         <v>3486820060009</v>
       </c>
@@ -24995,7 +25003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="741" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
         <v>3417320230104</v>
       </c>
@@ -25018,7 +25026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="742" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A742" s="3">
         <v>5010019641564</v>
       </c>
@@ -25041,7 +25049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="743" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
         <v>3021891000259</v>
       </c>
@@ -25064,7 +25072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="744" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A744" s="3">
         <v>3147690059004</v>
       </c>
@@ -25087,7 +25095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="745" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
         <v>3571551777415</v>
       </c>
@@ -25110,7 +25118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="746" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A746" s="3">
         <v>80272687</v>
       </c>
@@ -25133,7 +25141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="747" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
         <v>20187156</v>
       </c>
@@ -25159,7 +25167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="748" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A748" s="3">
         <v>5010677912075</v>
       </c>
@@ -25182,7 +25190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="749" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
         <v>8003170012196</v>
       </c>
@@ -25205,7 +25213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A750" s="3">
         <v>5010677951043</v>
       </c>
@@ -25228,7 +25236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="751" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
         <v>8000513000063</v>
       </c>
@@ -25251,7 +25259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="752" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A752" s="3">
         <v>5010677925303</v>
       </c>
@@ -25274,7 +25282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="753" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
         <v>8008310072511</v>
       </c>
@@ -25297,7 +25305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="754" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A754" s="3">
         <v>8003750001725</v>
       </c>
@@ -25320,7 +25328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="755" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
         <v>5995099191720</v>
       </c>
@@ -25343,7 +25351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="756" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A756" s="3">
         <v>3560070269297</v>
       </c>
@@ -25372,7 +25380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="757" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
         <v>8001205227065</v>
       </c>
@@ -25395,7 +25403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="758" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A758" s="3">
         <v>8002230130504</v>
       </c>
@@ -25424,7 +25432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
         <v>8001120907974</v>
       </c>
@@ -25447,7 +25455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="760" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A760" s="3">
         <v>5995099191911</v>
       </c>
@@ -25470,7 +25478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="761" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
         <v>3564700709634</v>
       </c>
@@ -25493,7 +25501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="762" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A762" s="3">
         <v>3564700658802</v>
       </c>
@@ -25516,7 +25524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="763" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
         <v>3564700646649</v>
       </c>
@@ -25539,7 +25547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="764" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A764" s="3">
         <v>3564700015377</v>
       </c>
@@ -25565,7 +25573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="765" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
         <v>63657039960</v>
       </c>
@@ -25588,7 +25596,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="766" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A766" s="3">
         <v>3256223624326</v>
       </c>
@@ -25611,7 +25619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="767" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
         <v>3256222989631</v>
       </c>
@@ -25634,7 +25642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="768" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A768" s="3">
         <v>3256226090494</v>
       </c>
@@ -25657,7 +25665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
         <v>8427201002039</v>
       </c>
@@ -25680,7 +25688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A770" s="3">
         <v>5029704217366</v>
       </c>
@@ -25703,7 +25711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
         <v>3119783007636</v>
       </c>
@@ -25726,7 +25734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A772" s="3">
         <v>3301592000452</v>
       </c>
@@ -25749,7 +25757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
         <v>3660989068001</v>
       </c>
@@ -25772,7 +25780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A774" s="3">
         <v>3660989163706</v>
       </c>
@@ -25795,7 +25803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
         <v>4809015157480</v>
       </c>
@@ -25821,7 +25829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A776" s="3">
         <v>3080216046150</v>
       </c>
@@ -25844,7 +25852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
         <v>1847325</v>
       </c>
@@ -25867,7 +25875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A778" s="3">
         <v>180716000713</v>
       </c>
@@ -25890,7 +25898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
         <v>3119780268696</v>
       </c>
@@ -25913,7 +25921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A780" s="3">
         <v>4037458000012</v>
       </c>
@@ -25939,7 +25947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
         <v>9322214011407</v>
       </c>
@@ -25959,7 +25967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A782" s="3">
         <v>3012991302039</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
         <v>3155930005568</v>
       </c>
@@ -26005,7 +26013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A784" s="3">
         <v>3186122002805</v>
       </c>
@@ -26028,7 +26036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
         <v>3245414649644</v>
       </c>
@@ -26051,7 +26059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A786" s="3">
         <v>3250391710119</v>
       </c>
@@ -26074,7 +26082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
         <v>3192200003381</v>
       </c>
@@ -26097,7 +26105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A788" s="3">
         <v>3256225736935</v>
       </c>
@@ -26120,7 +26128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
         <v>3119780268306</v>
       </c>
@@ -26143,7 +26151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A790" s="3">
         <v>3119780268368</v>
       </c>
@@ -26166,7 +26174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
         <v>3564709001999</v>
       </c>
@@ -26189,7 +26197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A792" s="3">
         <v>3253950071744</v>
       </c>
@@ -26212,7 +26220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
         <v>2000000040410</v>
       </c>
@@ -26235,7 +26243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A794" s="3">
         <v>3760128522729</v>
       </c>
@@ -26258,7 +26266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
         <v>3384250003033</v>
       </c>
@@ -26281,7 +26289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A796" s="3">
         <v>3591440002022</v>
       </c>
@@ -26304,7 +26312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
         <v>3282946051606</v>
       </c>
@@ -26327,7 +26335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A798" s="3">
         <v>3323860130951</v>
       </c>
@@ -26353,7 +26361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
         <v>3353210019810</v>
       </c>
@@ -26376,7 +26384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A800" s="3">
         <v>3257941000393</v>
       </c>
@@ -26399,7 +26407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
         <v>3282946029483</v>
       </c>
@@ -26422,7 +26430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A802" s="3">
         <v>3076000864208</v>
       </c>
@@ -26445,7 +26453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
         <v>3286020030013</v>
       </c>
@@ -26468,7 +26476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A804" s="3">
         <v>3253953000970</v>
       </c>
@@ -26491,7 +26499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
         <v>3016570001412</v>
       </c>
@@ -26514,7 +26522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A806" s="3">
         <v>3563060003444</v>
       </c>
@@ -26528,7 +26536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
         <v>3760174270032</v>
       </c>
@@ -26551,7 +26559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A808" s="3">
         <v>3254560789456</v>
       </c>
@@ -26574,7 +26582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
         <v>3385798018008</v>
       </c>
@@ -26597,7 +26605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A810" s="3">
         <v>3463640700759</v>
       </c>
@@ -26620,7 +26628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
         <v>3250391696727</v>
       </c>
@@ -26643,7 +26651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A812" s="3">
         <v>26010298</v>
       </c>
@@ -26666,7 +26674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
         <v>3467443600018</v>
       </c>
@@ -26689,7 +26697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A814" s="3">
         <v>3219850048019</v>
       </c>
@@ -26712,7 +26720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
         <v>3183520040873</v>
       </c>
@@ -26735,7 +26743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A816" s="3">
         <v>3175529636560</v>
       </c>
@@ -26758,7 +26766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
         <v>3176481021111</v>
       </c>
@@ -26781,7 +26789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A818" s="3">
         <v>3580284030605</v>
       </c>
@@ -26804,7 +26812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
         <v>3500610088865</v>
       </c>
@@ -26827,7 +26835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A820" s="3">
         <v>3262151872753</v>
       </c>
@@ -26850,7 +26858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
         <v>3469891130765</v>
       </c>
@@ -26873,7 +26881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A822" s="3">
         <v>3119460021061</v>
       </c>
@@ -26896,7 +26904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
         <v>3760011977049</v>
       </c>
@@ -26919,7 +26927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A824" s="3">
         <v>3760117190748</v>
       </c>
@@ -26942,7 +26950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
         <v>3760061751897</v>
       </c>
@@ -26965,7 +26973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A826" s="3">
         <v>3274440058090</v>
       </c>
@@ -26988,7 +26996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
         <v>3760040180007</v>
       </c>
@@ -27011,7 +27019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A828" s="3">
         <v>3760011907145</v>
       </c>
@@ -27034,7 +27042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
         <v>3328290299100</v>
       </c>
@@ -27057,7 +27065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A830" s="3">
         <v>3760006531515</v>
       </c>
@@ -27080,7 +27088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
         <v>3760078460218</v>
       </c>
@@ -27103,7 +27111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A832" s="3">
         <v>3660668313408</v>
       </c>
@@ -27126,7 +27134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="833" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
         <v>3760140143032</v>
       </c>
@@ -27149,7 +27157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="834" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A834" s="3">
         <v>3047100003828</v>
       </c>
@@ -27172,7 +27180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="835" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
         <v>3256811114956</v>
       </c>
@@ -27195,7 +27203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="836" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A836" s="3">
         <v>3395940530883</v>
       </c>
@@ -27218,7 +27226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="837" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
         <v>3660989167520</v>
       </c>
@@ -27241,7 +27249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="838" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A838" s="3">
         <v>3198129242733</v>
       </c>
@@ -27264,7 +27272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="839" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
         <v>3760223730012</v>
       </c>
@@ -27287,7 +27295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="840" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A840" s="3">
         <v>3464939208253</v>
       </c>
@@ -27310,7 +27318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="841" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
         <v>3012993048294</v>
       </c>
@@ -27333,7 +27341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="842" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A842" s="3">
         <v>3760003370049</v>
       </c>
@@ -27356,7 +27364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="843" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
         <v>3175520036338</v>
       </c>
@@ -27379,7 +27387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="844" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A844" s="3">
         <v>3175528450242</v>
       </c>
@@ -27402,7 +27410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="845" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
         <v>3023482200109</v>
       </c>
@@ -27425,7 +27433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="846" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A846" s="3">
         <v>8410487803377</v>
       </c>
@@ -27448,7 +27456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="847" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
         <v>5601194700070</v>
       </c>
@@ -27474,7 +27482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="848" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A848" s="3">
         <v>2000000000984</v>
       </c>
@@ -27497,7 +27505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="849" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
         <v>8712000054526</v>
       </c>
@@ -27520,7 +27528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="850" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A850" s="3">
         <v>8436006590016</v>
       </c>
@@ -27543,7 +27551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="851" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
         <v>3260986000075</v>
       </c>
@@ -27566,7 +27574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="852" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A852" s="3">
         <v>3560070580965</v>
       </c>
@@ -27598,7 +27606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="853" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
         <v>8008530008680</v>
       </c>
@@ -27624,7 +27632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="854" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A854" s="3">
         <v>82184090473</v>
       </c>
@@ -27650,7 +27658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="855" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
         <v>8480000667342</v>
       </c>
@@ -27673,7 +27681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="856" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A856" s="3">
         <v>5010106114414</v>
       </c>
@@ -27696,7 +27704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="857" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
         <v>8480000667717</v>
       </c>
@@ -27719,7 +27727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="858" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A858" s="3">
         <v>8712000900045</v>
       </c>
@@ -27742,7 +27750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="859" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
         <v>8410569615614</v>
       </c>
@@ -27765,7 +27773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="860" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A860" s="3">
         <v>8480000665546</v>
       </c>
@@ -27788,7 +27796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="861" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
         <v>8437011862402</v>
       </c>
@@ -27811,7 +27819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="862" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A862" s="3">
         <v>5410228220480</v>
       </c>
@@ -27834,7 +27842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="863" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
         <v>5410228174073</v>
       </c>
@@ -27857,7 +27865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="864" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A864" s="3">
         <v>5410228121169</v>
       </c>
@@ -27880,7 +27888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="865" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
         <v>3245414819917</v>
       </c>
@@ -27903,7 +27911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="866" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A866" s="3">
         <v>27038178</v>
       </c>
@@ -27926,7 +27934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="867" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
         <v>8410261151311</v>
       </c>
@@ -27952,7 +27960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="868" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A868" s="3">
         <v>3147690089803</v>
       </c>
@@ -27975,7 +27983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="869" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
         <v>5410228228455</v>
       </c>
@@ -27998,7 +28006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="870" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A870" s="3">
         <v>8000020000365</v>
       </c>
@@ -28021,7 +28029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="871" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
         <v>6001108056733</v>
       </c>
@@ -28044,7 +28052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="872" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A872" s="3">
         <v>3262850042426</v>
       </c>
@@ -28067,7 +28075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="873" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
         <v>8711406186190</v>
       </c>
@@ -28090,7 +28098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="874" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A874" s="3">
         <v>5010494195286</v>
       </c>
@@ -28113,7 +28121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="875" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
         <v>3047100048119</v>
       </c>
@@ -28136,7 +28144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="876" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A876" s="3">
         <v>5410228213048</v>
       </c>
@@ -28159,7 +28167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="877" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
         <v>5010103800259</v>
       </c>
@@ -28185,7 +28193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="878" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A878" s="3">
         <v>3020881641106</v>
       </c>
@@ -28211,7 +28219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="879" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
         <v>3018300000245</v>
       </c>
@@ -28237,7 +28245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="880" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A880" s="3">
         <v>75496001008</v>
       </c>
@@ -28260,7 +28268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="881" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
         <v>3660088138711</v>
       </c>
@@ -28283,7 +28291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A882" s="3">
         <v>5010017118495</v>
       </c>
@@ -28306,7 +28314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="883" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
         <v>3660088100251</v>
       </c>
@@ -28329,7 +28337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="884" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A884" s="3">
         <v>3155930006015</v>
       </c>
@@ -28364,7 +28372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="885" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
         <v>3329060000018</v>
       </c>
@@ -28387,7 +28395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="886" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A886" s="3">
         <v>3560070715275</v>
       </c>
@@ -28410,7 +28418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="887" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
         <v>5000299605042</v>
       </c>
@@ -28433,7 +28441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="888" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A888" s="3">
         <v>8411144100082</v>
       </c>
@@ -28459,7 +28467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="889" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
         <v>8480000288400</v>
       </c>
@@ -28482,7 +28490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="890" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A890" s="3">
         <v>5900343007764</v>
       </c>
@@ -28502,7 +28510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="891" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
         <v>5010496006191</v>
       </c>
@@ -28525,7 +28533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="892" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A892" s="3">
         <v>3245390083555</v>
       </c>
@@ -28545,7 +28553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="893" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
         <v>42253075</v>
       </c>
@@ -28568,7 +28576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="894" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A894" s="3">
         <v>3080210004491</v>
       </c>
@@ -28588,7 +28596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="895" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
         <v>5099873009864</v>
       </c>
@@ -28611,7 +28619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="896" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A896" s="3">
         <v>5900343003148</v>
       </c>
@@ -28634,7 +28642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
         <v>8480000664938</v>
       </c>
@@ -28657,7 +28665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A898" s="3">
         <v>8423453904312</v>
       </c>
@@ -28680,7 +28688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
         <v>3569842417010</v>
       </c>
@@ -28697,7 +28705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A900" s="3">
         <v>4304493263543</v>
       </c>
@@ -28711,7 +28719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
         <v>6413600055372</v>
       </c>
@@ -28734,7 +28742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A902" s="3">
         <v>76162251</v>
       </c>
@@ -28760,7 +28768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
         <v>8410793156136</v>
       </c>
@@ -28783,7 +28791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A904" s="3">
         <v>4014964020277</v>
       </c>
@@ -28806,7 +28814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
         <v>4002631015909</v>
       </c>
@@ -28829,7 +28837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A906" s="3">
         <v>4088600127637</v>
       </c>
@@ -28852,7 +28860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
         <v>5000281019390</v>
       </c>
@@ -28875,7 +28883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A908" s="3">
         <v>5000281016283</v>
       </c>
@@ -28898,7 +28906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
         <v>5010496004555</v>
       </c>
@@ -28921,7 +28929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A910" s="3">
         <v>5010494195125</v>
       </c>
@@ -28944,7 +28952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
         <v>5010494296280</v>
       </c>
@@ -28967,7 +28975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A912" s="3">
         <v>5055807400473</v>
       </c>
@@ -28990,7 +28998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="913" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
         <v>5060210700522</v>
       </c>
@@ -29013,7 +29021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="914" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A914" s="3">
         <v>5000299610718</v>
       </c>
@@ -29036,7 +29044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="915" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
         <v>5000299610886</v>
       </c>
@@ -29059,7 +29067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="916" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A916" s="3">
         <v>3047100601147</v>
       </c>
@@ -29082,7 +29090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="917" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
         <v>5010106112304</v>
       </c>
@@ -29105,7 +29113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="918" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A918" s="3">
         <v>5000299606308</v>
       </c>
@@ -29128,7 +29136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="919" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
         <v>5000299606070</v>
       </c>
@@ -29151,7 +29159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="920" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A920" s="3">
         <v>5000299610688</v>
       </c>
@@ -29171,7 +29179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="921" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
         <v>5018066154617</v>
       </c>
@@ -29194,7 +29202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="922" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A922" s="3">
         <v>5029704218639</v>
       </c>
@@ -29217,7 +29225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="923" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
         <v>5010496530818</v>
       </c>
@@ -29240,7 +29248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="924" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A924" s="3">
         <v>3471940000547</v>
       </c>
@@ -29263,7 +29271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="925" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
         <v>5000299610619</v>
       </c>
@@ -29286,7 +29294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="926" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A926" s="3">
         <v>3011932026836</v>
       </c>
@@ -29309,7 +29317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="927" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
         <v>26049915</v>
       </c>
@@ -29332,7 +29340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="928" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A928" s="3">
         <v>5010019638144</v>
       </c>
@@ -29355,7 +29363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
         <v>3222471154397</v>
       </c>
@@ -29372,7 +29380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A930" s="3">
         <v>3222475468674</v>
       </c>
@@ -29395,7 +29403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
         <v>3119780251889</v>
       </c>
@@ -29418,7 +29426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A932" s="3">
         <v>3222472854814</v>
       </c>
@@ -29441,7 +29449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
         <v>3660989149335</v>
       </c>
@@ -29464,7 +29472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A934" s="3">
         <v>8437011862532</v>
       </c>
@@ -29490,7 +29498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
         <v>8006725100386</v>
       </c>
@@ -29513,7 +29521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A936" s="3">
         <v>4002798019260</v>
       </c>
@@ -29539,7 +29547,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
         <v>4056489191810</v>
       </c>
@@ -29562,7 +29570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A938" s="3">
         <v>3113880105110</v>
       </c>
@@ -29585,7 +29593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
         <v>3450970152730</v>
       </c>
@@ -29608,7 +29616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A940" s="3">
         <v>15226828</v>
       </c>
@@ -29625,7 +29633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
         <v>3660989102729</v>
       </c>
@@ -29648,7 +29656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A942" s="3">
         <v>4013200881313</v>
       </c>
@@ -29671,7 +29679,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
         <v>3014409005655</v>
       </c>
@@ -29694,7 +29702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A944" s="3">
         <v>4316268386937</v>
       </c>
@@ -29705,7 +29713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="945" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
         <v>1787757</v>
       </c>
@@ -29728,7 +29736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="946" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A946" s="3">
         <v>8017938030100</v>
       </c>
@@ -29751,7 +29759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="947" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
         <v>20020224</v>
       </c>
@@ -29774,7 +29782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="948" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A948" s="3">
         <v>3564700751480</v>
       </c>
@@ -29797,7 +29805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="949" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
         <v>8428955000111</v>
       </c>
@@ -29820,7 +29828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="950" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A950" s="3">
         <v>4088600228471</v>
       </c>
@@ -29837,7 +29845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="951" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
         <v>7350071700686</v>
       </c>
@@ -29854,7 +29862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="952" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A952" s="3">
         <v>4008287910629</v>
       </c>
@@ -29874,7 +29882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="953" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
         <v>5010103939973</v>
       </c>
@@ -29891,7 +29899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="954" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A954" s="3">
         <v>3700209600144</v>
       </c>
@@ -29914,7 +29922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="955" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
         <v>8017300113141</v>
       </c>
@@ -29937,7 +29945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="956" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A956" s="3">
         <v>4100320151430</v>
       </c>
@@ -29960,7 +29968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="957" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
         <v>42341888</v>
       </c>
@@ -29983,7 +29991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="958" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A958" s="3">
         <v>8011510013413</v>
       </c>
@@ -30006,7 +30014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="959" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
         <v>3258561370255</v>
       </c>
@@ -30029,7 +30037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="960" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A960" s="3">
         <v>9421001295836</v>
       </c>
@@ -30040,7 +30048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="961" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
         <v>1816927</v>
       </c>
@@ -30060,7 +30068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="962" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A962" s="3">
         <v>3760167409319</v>
       </c>
@@ -30083,7 +30091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="963" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
         <v>4003301088469</v>
       </c>
@@ -30106,7 +30114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="964" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A964" s="3">
         <v>5901359084251</v>
       </c>
@@ -30129,7 +30137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="965" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
         <v>7611650600705</v>
       </c>
@@ -30152,7 +30160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="966" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A966" s="3">
         <v>5410228231493</v>
       </c>
@@ -30172,7 +30180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="967" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
         <v>3023481030707</v>
       </c>
@@ -30195,7 +30203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="968" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A968" s="3">
         <v>3162040122757</v>
       </c>
@@ -30218,7 +30226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="969" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
         <v>5411081006716</v>
       </c>
@@ -30245,4 +30253,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C5800A-396F-4660-BE50-52406D8E3B40}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>